--- a/HW3/Workbook1.xlsx
+++ b/HW3/Workbook1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnathansaunders/Documents/fall_17/DataWarehousing-/HW2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnathansaunders/Documents/fall_17/DataWarehousing-/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,11 +1047,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>294</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D38" si="5">B8/2074</f>
-        <v>0.14175506268081003</v>
+        <v>4.8216007714561236E-4</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E38" si="6">C8*((K8+L8)/2)</f>
@@ -1059,22 +1059,22 @@
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>8304.011571841851</v>
+        <v>28.244937319189972</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:G38" si="7">F8+E8</f>
-        <v>8304.011571841851</v>
+        <v>28.244937319189972</v>
       </c>
       <c r="H8" s="3">
         <f>G8*O8</f>
-        <v>116256.16200578591</v>
+        <v>84.734811957569917</v>
       </c>
       <c r="I8">
         <v>109794</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>-5.5585543977138157</v>
+        <v>129473.66336633661</v>
       </c>
       <c r="K8" s="1">
         <v>1180</v>
@@ -1089,7 +1089,7 @@
         <v>100</v>
       </c>
       <c r="O8" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1116,15 +1116,15 @@
         <v>141.22468659594986</v>
       </c>
       <c r="H9" s="3">
-        <f>G9*O9</f>
-        <v>1977.1456123432981</v>
+        <f t="shared" ref="H8:H38" si="8">G9*O9</f>
+        <v>423.67405978784961</v>
       </c>
       <c r="I9">
         <v>1865</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>-5.6720967663268862</v>
+        <v>340.19688175714117</v>
       </c>
       <c r="K9" s="1">
         <v>1180</v>
@@ -1139,7 +1139,7 @@
         <v>100</v>
       </c>
       <c r="O9" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1166,15 +1166,15 @@
         <v>282.44937319189972</v>
       </c>
       <c r="H10" s="3">
-        <f>G10*O10</f>
-        <v>3954.2912246865963</v>
+        <f t="shared" si="8"/>
+        <v>847.34811957569923</v>
       </c>
       <c r="I10">
         <v>3647</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>-7.7710822806418642</v>
+        <v>330.40161602367124</v>
       </c>
       <c r="K10" s="1">
         <v>1180</v>
@@ -1189,7 +1189,7 @@
         <v>100</v>
       </c>
       <c r="O10" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1216,15 +1216,15 @@
         <v>4575.6798457087752</v>
       </c>
       <c r="H11" s="3">
-        <f>G11*O11</f>
-        <v>64059.517839922853</v>
+        <f t="shared" si="8"/>
+        <v>13727.039537126326</v>
       </c>
       <c r="I11">
         <v>60434</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
-        <v>-5.6596083801045669</v>
+        <v>340.25516089284531</v>
       </c>
       <c r="K11" s="1">
         <v>1180</v>
@@ -1239,7 +1239,7 @@
         <v>100</v>
       </c>
       <c r="O11" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1266,15 +1266,15 @@
         <v>2146.615236258438</v>
       </c>
       <c r="H12" s="3">
-        <f>G12*O12</f>
-        <v>30052.613307618132</v>
+        <f t="shared" si="8"/>
+        <v>6439.8457087753141</v>
       </c>
       <c r="I12">
         <v>28223</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="3"/>
-        <v>-6.0880339719219618</v>
+        <v>338.25584146436421</v>
       </c>
       <c r="K12" s="1">
         <v>1180</v>
@@ -1289,7 +1289,7 @@
         <v>100</v>
       </c>
       <c r="O12" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1316,15 +1316,15 @@
         <v>56.489874638379945</v>
       </c>
       <c r="H13" s="3">
-        <f>G13*O13</f>
-        <v>790.85824493731923</v>
+        <f t="shared" si="8"/>
+        <v>169.46962391513983</v>
       </c>
       <c r="I13">
         <v>734</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
-        <v>-7.1894356923377121</v>
+        <v>333.11596676909068</v>
       </c>
       <c r="K13" s="1">
         <v>1180</v>
@@ -1339,7 +1339,7 @@
         <v>100</v>
       </c>
       <c r="O13" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1366,15 +1366,15 @@
         <v>423.67405978784956</v>
       </c>
       <c r="H14" s="3">
-        <f>G14*O14</f>
-        <v>5931.4368370298935</v>
+        <f t="shared" si="8"/>
+        <v>1271.0221793635487</v>
       </c>
       <c r="I14">
         <v>5597</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="3"/>
-        <v>-5.638378123526631</v>
+        <v>340.35423542354238</v>
       </c>
       <c r="K14" s="1">
         <v>1180</v>
@@ -1389,7 +1389,7 @@
         <v>100</v>
       </c>
       <c r="O14" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1416,15 +1416,15 @@
         <v>112.97974927675989</v>
       </c>
       <c r="H15" s="3">
-        <f>G15*O15</f>
-        <v>1581.7164898746385</v>
+        <f t="shared" si="8"/>
+        <v>338.93924783027967</v>
       </c>
       <c r="I15">
         <v>1553</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="3"/>
-        <v>-1.8155269960493634</v>
+        <v>358.19420735176959</v>
       </c>
       <c r="K15" s="1">
         <v>1180</v>
@@ -1439,7 +1439,7 @@
         <v>100</v>
       </c>
       <c r="O15" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1466,15 +1466,15 @@
         <v>56.489874638379945</v>
       </c>
       <c r="H16" s="3">
-        <f>G16*O16</f>
-        <v>790.85824493731923</v>
+        <f t="shared" si="8"/>
+        <v>169.46962391513983</v>
       </c>
       <c r="I16">
         <v>729</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
-        <v>-7.8216602448422226</v>
+        <v>330.16558552406957</v>
       </c>
       <c r="K16" s="1">
         <v>1180</v>
@@ -1489,7 +1489,7 @@
         <v>100</v>
       </c>
       <c r="O16" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1516,15 +1516,15 @@
         <v>28.244937319189972</v>
       </c>
       <c r="H17" s="3">
-        <f>G17*O17</f>
-        <v>395.42912246865961</v>
+        <f t="shared" si="8"/>
+        <v>84.734811957569917</v>
       </c>
       <c r="I17">
         <v>356</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
-        <v>-9.9712237233575607</v>
+        <v>320.13428929099803</v>
       </c>
       <c r="K17" s="1">
         <v>1180</v>
@@ -1539,7 +1539,7 @@
         <v>100</v>
       </c>
       <c r="O17" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1566,15 +1566,15 @@
         <v>282.44937319189972</v>
       </c>
       <c r="H18" s="3">
-        <f>G18*O18</f>
-        <v>3954.2912246865963</v>
+        <f t="shared" si="8"/>
+        <v>847.34811957569923</v>
       </c>
       <c r="I18">
         <v>3708</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="3"/>
-        <v>-6.2284543725308561</v>
+        <v>337.60054626152265</v>
       </c>
       <c r="K18" s="1">
         <v>1180</v>
@@ -1589,7 +1589,7 @@
         <v>100</v>
       </c>
       <c r="O18" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1616,15 +1616,15 @@
         <v>593.14368370298939</v>
       </c>
       <c r="H19" s="3">
-        <f>G19*O19</f>
-        <v>8304.011571841851</v>
+        <f t="shared" si="8"/>
+        <v>1779.4310511089682</v>
       </c>
       <c r="I19">
         <v>7937</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
-        <v>-4.4196900337465079</v>
+        <v>346.04144650918295</v>
       </c>
       <c r="K19" s="1">
         <v>1180</v>
@@ -1639,7 +1639,7 @@
         <v>100</v>
       </c>
       <c r="O19" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1666,15 +1666,15 @@
         <v>847.34811957569912</v>
       </c>
       <c r="H20" s="3">
-        <f>G20*O20</f>
-        <v>11862.873674059787</v>
+        <f t="shared" si="8"/>
+        <v>2542.0443587270975</v>
       </c>
       <c r="I20">
         <v>10851</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="3"/>
-        <v>-8.5297517436472639</v>
+        <v>326.8611585296461</v>
       </c>
       <c r="K20" s="1">
         <v>1180</v>
@@ -1689,7 +1689,7 @@
         <v>100</v>
       </c>
       <c r="O20" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1716,15 +1716,15 @@
         <v>1271.0221793635487</v>
       </c>
       <c r="H21" s="3">
-        <f>G21*O21</f>
-        <v>17794.310511089683</v>
+        <f t="shared" si="8"/>
+        <v>3813.0665380906462</v>
       </c>
       <c r="I21">
         <v>16831</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
-        <v>-5.4135871715250419</v>
+        <v>341.4032598662165</v>
       </c>
       <c r="K21" s="1">
         <v>1180</v>
@@ -1739,7 +1739,7 @@
         <v>100</v>
       </c>
       <c r="O21" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1766,15 +1766,15 @@
         <v>706.12343297974928</v>
       </c>
       <c r="H22" s="3">
-        <f>G22*O22</f>
-        <v>9885.7280617164906</v>
+        <f t="shared" si="8"/>
+        <v>2118.3702989392477</v>
       </c>
       <c r="I22">
         <v>9327</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="3"/>
-        <v>-5.6518655806467422</v>
+        <v>340.29129395698192</v>
       </c>
       <c r="K22" s="1">
         <v>1180</v>
@@ -1789,7 +1789,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1816,15 +1816,15 @@
         <v>423.67405978784956</v>
       </c>
       <c r="H23" s="3">
-        <f>G23*O23</f>
-        <v>5931.4368370298935</v>
+        <f t="shared" si="8"/>
+        <v>1271.0221793635487</v>
       </c>
       <c r="I23">
         <v>5594</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="3"/>
-        <v>-5.688956087726992</v>
+        <v>340.11820492394071</v>
       </c>
       <c r="K23" s="1">
         <v>1180</v>
@@ -1839,7 +1839,7 @@
         <v>100</v>
       </c>
       <c r="O23" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1866,15 +1866,15 @@
         <v>3756.5766634522661</v>
       </c>
       <c r="H24" s="3">
-        <f>G24*O24</f>
-        <v>52592.073288331725</v>
+        <f t="shared" si="8"/>
+        <v>11269.729990356798</v>
       </c>
       <c r="I24">
         <v>49756</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="3"/>
-        <v>-5.3925869641669877</v>
+        <v>341.50126083388739</v>
       </c>
       <c r="K24" s="1">
         <v>1180</v>
@@ -1889,7 +1889,7 @@
         <v>100</v>
       </c>
       <c r="O24" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1916,15 +1916,15 @@
         <v>1129.7974927675989</v>
       </c>
       <c r="H25" s="3">
-        <f>G25*O25</f>
-        <v>15817.164898746385</v>
+        <f t="shared" si="8"/>
+        <v>3389.3924783027969</v>
       </c>
       <c r="I25">
         <v>14694</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="3"/>
-        <v>-7.1009242549870812</v>
+        <v>333.52902014339361</v>
       </c>
       <c r="K25" s="1">
         <v>1180</v>
@@ -1939,7 +1939,7 @@
         <v>100</v>
       </c>
       <c r="O25" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1966,15 +1966,15 @@
         <v>564.89874638379945</v>
       </c>
       <c r="H26" s="3">
-        <f>G26*O26</f>
-        <v>7908.5824493731925</v>
+        <f t="shared" si="8"/>
+        <v>1694.6962391513985</v>
       </c>
       <c r="I26">
         <v>7592</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="3"/>
-        <v>-4.0030239477149756</v>
+        <v>347.98588824399673</v>
       </c>
       <c r="K26" s="1">
         <v>1180</v>
@@ -1989,7 +1989,7 @@
         <v>100</v>
       </c>
       <c r="O26" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2016,15 +2016,15 @@
         <v>282.44937319189972</v>
       </c>
       <c r="H27" s="3">
-        <f>G27*O27</f>
-        <v>3954.2912246865963</v>
+        <f t="shared" si="8"/>
+        <v>847.34811957569923</v>
       </c>
       <c r="I27">
         <v>3755</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="3"/>
-        <v>-5.0398722138223748</v>
+        <v>343.14726300216222</v>
       </c>
       <c r="K27" s="1">
         <v>1180</v>
@@ -2039,7 +2039,7 @@
         <v>100</v>
       </c>
       <c r="O27" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2066,15 +2066,15 @@
         <v>564.89874638379945</v>
       </c>
       <c r="H28" s="3">
-        <f>G28*O28</f>
-        <v>7908.5824493731925</v>
+        <f t="shared" si="8"/>
+        <v>1694.6962391513985</v>
       </c>
       <c r="I28">
         <v>7613</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="3"/>
-        <v>-3.7374896356630813</v>
+        <v>349.22504836690558</v>
       </c>
       <c r="K28" s="1">
         <v>1180</v>
@@ -2089,7 +2089,7 @@
         <v>100</v>
       </c>
       <c r="O28" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2116,15 +2116,15 @@
         <v>423.67405978784956</v>
       </c>
       <c r="H29" s="3">
-        <f>G29*O29</f>
-        <v>5931.4368370298935</v>
+        <f t="shared" si="8"/>
+        <v>1271.0221793635487</v>
       </c>
       <c r="I29">
         <v>5470</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="3"/>
-        <v>-7.7795119413419105</v>
+        <v>330.36227760707106</v>
       </c>
       <c r="K29" s="1">
         <v>1180</v>
@@ -2139,7 +2139,7 @@
         <v>100</v>
       </c>
       <c r="O29" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2166,15 +2166,15 @@
         <v>141.22468659594986</v>
       </c>
       <c r="H30" s="3">
-        <f>G30*O30</f>
-        <v>1977.1456123432981</v>
+        <f t="shared" si="8"/>
+        <v>423.67405978784961</v>
       </c>
       <c r="I30">
         <v>1910</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="3"/>
-        <v>-3.3960883773106452</v>
+        <v>350.81825423921697</v>
       </c>
       <c r="K30" s="1">
         <v>1180</v>
@@ -2189,7 +2189,7 @@
         <v>100</v>
       </c>
       <c r="O30" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2216,15 +2216,15 @@
         <v>2316.0848601735775</v>
       </c>
       <c r="H31" s="3">
-        <f>G31*O31</f>
-        <v>32425.188042430083</v>
+        <f t="shared" si="8"/>
+        <v>6948.2545805207319</v>
       </c>
       <c r="I31">
         <v>30464</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="3"/>
-        <v>-6.0483474756222373</v>
+        <v>338.44104511376287</v>
       </c>
       <c r="K31" s="1">
         <v>1180</v>
@@ -2239,7 +2239,7 @@
         <v>100</v>
       </c>
       <c r="O31" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2266,15 +2266,15 @@
         <v>564.89874638379945</v>
       </c>
       <c r="H32" s="3">
-        <f>G32*O32</f>
-        <v>7908.5824493731925</v>
+        <f t="shared" si="8"/>
+        <v>1694.6962391513985</v>
       </c>
       <c r="I32">
         <v>7643</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="3"/>
-        <v>-3.3581549041603744</v>
+        <v>350.99527711391818</v>
       </c>
       <c r="K32" s="1">
         <v>1180</v>
@@ -2289,7 +2289,7 @@
         <v>100</v>
       </c>
       <c r="O32" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2316,15 +2316,15 @@
         <v>169.46962391513983</v>
       </c>
       <c r="H33" s="3">
-        <f>G33*O33</f>
-        <v>2372.5747348119576</v>
+        <f t="shared" si="8"/>
+        <v>508.4088717454195</v>
       </c>
       <c r="I33">
         <v>2342</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="3"/>
-        <v>-1.2886732022955989</v>
+        <v>360.65285838928719</v>
       </c>
       <c r="K33" s="1">
         <v>1180</v>
@@ -2339,7 +2339,7 @@
         <v>100</v>
       </c>
       <c r="O33" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2366,15 +2366,15 @@
         <v>423.67405978784956</v>
       </c>
       <c r="H34" s="3">
-        <f>G34*O34</f>
-        <v>5931.4368370298935</v>
+        <f t="shared" si="8"/>
+        <v>1271.0221793635487</v>
       </c>
       <c r="I34">
         <v>5740</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
-        <v>-3.2274951633094267</v>
+        <v>351.60502257122266</v>
       </c>
       <c r="K34" s="1">
         <v>1180</v>
@@ -2389,7 +2389,7 @@
         <v>100</v>
       </c>
       <c r="O34" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2416,15 +2416,15 @@
         <v>141.22468659594986</v>
       </c>
       <c r="H35" s="3">
-        <f>G35*O35</f>
-        <v>1977.1456123432981</v>
+        <f t="shared" si="8"/>
+        <v>423.67405978784961</v>
       </c>
       <c r="I35">
         <v>1835</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="3"/>
-        <v>-7.189435692337713</v>
+        <v>333.11596676909062</v>
       </c>
       <c r="K35" s="1">
         <v>1180</v>
@@ -2439,7 +2439,7 @@
         <v>100</v>
       </c>
       <c r="O35" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2466,15 +2466,15 @@
         <v>141.22468659594986</v>
       </c>
       <c r="H36" s="3">
-        <f>G36*O36</f>
-        <v>1977.1456123432981</v>
+        <f t="shared" si="8"/>
+        <v>423.67405978784961</v>
       </c>
       <c r="I36">
         <v>1777</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="3"/>
-        <v>-10.122957615958647</v>
+        <v>319.42619779219291</v>
       </c>
       <c r="K36" s="1">
         <v>1180</v>
@@ -2489,7 +2489,7 @@
         <v>100</v>
       </c>
       <c r="O36" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2516,15 +2516,15 @@
         <v>1977.1456123432979</v>
       </c>
       <c r="H37" s="3">
-        <f>G37*O37</f>
-        <v>27680.03857280617</v>
+        <f t="shared" si="8"/>
+        <v>5931.4368370298935</v>
       </c>
       <c r="I37">
         <v>26011</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="3"/>
-        <v>-6.0297552274579971</v>
+        <v>338.52780893852935</v>
       </c>
       <c r="K37" s="1">
         <v>1180</v>
@@ -2539,7 +2539,7 @@
         <v>100</v>
       </c>
       <c r="O37" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2566,15 +2566,15 @@
         <v>3389.3924783027965</v>
       </c>
       <c r="H38" s="3">
-        <f>G38*O38</f>
-        <v>47451.494696239148</v>
+        <f t="shared" si="8"/>
+        <v>10168.17743490839</v>
       </c>
       <c r="I38">
         <v>44749</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="3"/>
-        <v>-5.6952783332520376</v>
+        <v>340.08870111149048</v>
       </c>
       <c r="K38" s="1">
         <v>1180</v>
@@ -2589,7 +2589,7 @@
         <v>100</v>
       </c>
       <c r="O38" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2600,11 +2600,11 @@
         <v>15</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D99" si="8">B39/2074</f>
+        <f t="shared" ref="D39:D99" si="9">B39/2074</f>
         <v>7.2324011571841852E-3</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E99" si="9">C39*((K39+L39)/2)</f>
+        <f t="shared" ref="E39:E99" si="10">C39*((K39+L39)/2)</f>
         <v>0</v>
       </c>
       <c r="F39">
@@ -2612,19 +2612,19 @@
         <v>423.67405978784956</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:G99" si="10">F39+E39</f>
+        <f t="shared" ref="G39:G99" si="11">F39+E39</f>
         <v>423.67405978784956</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" ref="H39:H99" si="11">G39*O39</f>
-        <v>5931.4368370298935</v>
+        <f t="shared" ref="H39:H99" si="12">G39*O39</f>
+        <v>1271.0221793635487</v>
       </c>
       <c r="I39">
         <v>5610</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="3"/>
-        <v>-5.4192069453250671</v>
+        <v>341.37703425514968</v>
       </c>
       <c r="K39" s="1">
         <v>1180</v>
@@ -2639,7 +2639,7 @@
         <v>100</v>
       </c>
       <c r="O39" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2650,11 +2650,11 @@
         <v>34</v>
       </c>
       <c r="D40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6393442622950821E-2</v>
       </c>
       <c r="E40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -2662,19 +2662,19 @@
         <v>960.32786885245912</v>
       </c>
       <c r="G40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>960.32786885245912</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="11"/>
-        <v>13444.590163934428</v>
+        <f t="shared" si="12"/>
+        <v>2880.9836065573772</v>
       </c>
       <c r="I40">
         <v>12700</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="3"/>
-        <v>-5.5382139199141731</v>
+        <v>340.82166837373393</v>
       </c>
       <c r="K40" s="1">
         <v>1180</v>
@@ -2689,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="O40" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2700,11 +2700,11 @@
         <v>25</v>
       </c>
       <c r="D41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2054001928640309E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F41">
@@ -2712,19 +2712,19 @@
         <v>706.12343297974928</v>
       </c>
       <c r="G41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>706.12343297974928</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="11"/>
-        <v>9885.7280617164906</v>
+        <f t="shared" si="12"/>
+        <v>2118.3702989392477</v>
       </c>
       <c r="I41">
         <v>9217</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="3"/>
-        <v>-6.764580793054682</v>
+        <v>335.09862296574488</v>
       </c>
       <c r="K41" s="1">
         <v>1180</v>
@@ -2739,7 +2739,7 @@
         <v>100</v>
       </c>
       <c r="O41" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2750,11 +2750,11 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.303760848601736E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F42">
@@ -2762,19 +2762,19 @@
         <v>310.69431051108967</v>
       </c>
       <c r="G42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>310.69431051108967</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="11"/>
-        <v>4349.7203471552557</v>
+        <f t="shared" si="12"/>
+        <v>932.08293153326895</v>
       </c>
       <c r="I42">
         <v>4069</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="3"/>
-        <v>-6.4537562130597328</v>
+        <v>336.54913767238799</v>
       </c>
       <c r="K42" s="1">
         <v>1180</v>
@@ -2789,7 +2789,7 @@
         <v>100</v>
       </c>
       <c r="O42" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2800,11 +2800,11 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561235E-3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F43">
@@ -2812,19 +2812,19 @@
         <v>282.44937319189972</v>
       </c>
       <c r="G43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>282.44937319189972</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="11"/>
-        <v>3954.2912246865963</v>
+        <f t="shared" si="12"/>
+        <v>847.34811957569923</v>
       </c>
       <c r="I43">
         <v>3606</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="3"/>
-        <v>-8.8079305467492635</v>
+        <v>325.56299078183673</v>
       </c>
       <c r="K43" s="1">
         <v>1180</v>
@@ -2839,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="O43" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2850,11 +2850,11 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561235E-3</v>
       </c>
       <c r="E44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F44">
@@ -2862,19 +2862,19 @@
         <v>282.44937319189972</v>
       </c>
       <c r="G44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>282.44937319189972</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="11"/>
-        <v>3954.2912246865963</v>
+        <f t="shared" si="12"/>
+        <v>847.34811957569923</v>
       </c>
       <c r="I44">
         <v>3623</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="3"/>
-        <v>-8.3780178510461951</v>
+        <v>327.56925002845105</v>
       </c>
       <c r="K44" s="1">
         <v>1180</v>
@@ -2889,7 +2889,7 @@
         <v>100</v>
       </c>
       <c r="O44" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2900,11 +2900,11 @@
         <v>14</v>
       </c>
       <c r="D45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.7502410800385727E-3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F45">
@@ -2912,19 +2912,19 @@
         <v>395.42912246865961</v>
       </c>
       <c r="G45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>395.42912246865961</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="11"/>
-        <v>5536.0077145612349</v>
+        <f t="shared" si="12"/>
+        <v>1186.2873674059788</v>
       </c>
       <c r="I45">
         <v>5259</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="3"/>
-        <v>-5.0037450965364059</v>
+        <v>343.31585621616347</v>
       </c>
       <c r="K45" s="1">
         <v>1180</v>
@@ -2939,7 +2939,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -2950,11 +2950,11 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561236E-4</v>
       </c>
       <c r="E46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F46">
@@ -2962,19 +2962,19 @@
         <v>28.244937319189972</v>
       </c>
       <c r="G46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.244937319189972</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="11"/>
-        <v>395.42912246865961</v>
+        <f t="shared" si="12"/>
+        <v>84.734811957569917</v>
       </c>
       <c r="I46">
         <v>350</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="3"/>
-        <v>-11.488562649368388</v>
+        <v>313.05337430294747</v>
       </c>
       <c r="K46" s="1">
         <v>1180</v>
@@ -2989,7 +2989,7 @@
         <v>100</v>
       </c>
       <c r="O46" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -3000,11 +3000,11 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4108003857280617E-3</v>
       </c>
       <c r="E47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F47">
@@ -3012,19 +3012,19 @@
         <v>141.22468659594986</v>
       </c>
       <c r="G47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>141.22468659594986</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="11"/>
-        <v>1977.1456123432981</v>
+        <f t="shared" si="12"/>
+        <v>423.67405978784961</v>
       </c>
       <c r="I47">
         <v>1885</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="3"/>
-        <v>-4.6605374823196675</v>
+        <v>344.91749174917487</v>
       </c>
       <c r="K47" s="1">
         <v>1180</v>
@@ -3039,7 +3039,7 @@
         <v>100</v>
       </c>
       <c r="O47" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -3050,11 +3050,11 @@
         <v>10</v>
       </c>
       <c r="D48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561235E-3</v>
       </c>
       <c r="E48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -3062,19 +3062,19 @@
         <v>282.44937319189972</v>
       </c>
       <c r="G48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>282.44937319189972</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="11"/>
-        <v>3954.2912246865963</v>
+        <f t="shared" si="12"/>
+        <v>847.34811957569923</v>
       </c>
       <c r="I48">
         <v>3732</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="3"/>
-        <v>-5.6215188021265252</v>
+        <v>340.43291225674284</v>
       </c>
       <c r="K48" s="1">
         <v>1180</v>
@@ -3089,7 +3089,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -3100,11 +3100,11 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8572806171648989E-3</v>
       </c>
       <c r="E49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F49">
@@ -3112,19 +3112,19 @@
         <v>225.95949855351978</v>
       </c>
       <c r="G49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>225.95949855351978</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="11"/>
-        <v>3163.4329797492769</v>
+        <f t="shared" si="12"/>
+        <v>677.87849566055934</v>
       </c>
       <c r="I49">
         <v>2976</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="3"/>
-        <v>-5.9249865873286875</v>
+        <v>339.01672925913277</v>
       </c>
       <c r="K49" s="1">
         <v>1180</v>
@@ -3139,7 +3139,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -3150,11 +3150,11 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6432015429122472E-4</v>
       </c>
       <c r="E50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F50">
@@ -3162,19 +3162,19 @@
         <v>56.489874638379945</v>
       </c>
       <c r="G50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.489874638379945</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="11"/>
-        <v>790.85824493731923</v>
+        <f t="shared" si="12"/>
+        <v>169.46962391513983</v>
       </c>
       <c r="I50">
         <v>753</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="3"/>
-        <v>-4.7869823928205673</v>
+        <v>344.32741550017062</v>
       </c>
       <c r="K50" s="1">
         <v>1180</v>
@@ -3189,7 +3189,7 @@
         <v>100</v>
       </c>
       <c r="O50" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -3200,11 +3200,11 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9286403085824494E-3</v>
       </c>
       <c r="E51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F51">
@@ -3212,19 +3212,19 @@
         <v>112.97974927675989</v>
       </c>
       <c r="G51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>112.97974927675989</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="11"/>
-        <v>1581.7164898746385</v>
+        <f t="shared" si="12"/>
+        <v>338.93924783027967</v>
       </c>
       <c r="I51">
         <v>1509</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="3"/>
-        <v>-4.5973150270692136</v>
+        <v>345.21252987367694</v>
       </c>
       <c r="K51" s="1">
         <v>1180</v>
@@ -3239,7 +3239,7 @@
         <v>100</v>
       </c>
       <c r="O51" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -3250,11 +3250,11 @@
         <v>25</v>
       </c>
       <c r="D52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2054001928640309E-2</v>
       </c>
       <c r="E52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F52">
@@ -3262,19 +3262,19 @@
         <v>706.12343297974928</v>
       </c>
       <c r="G52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>706.12343297974928</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="11"/>
-        <v>9885.7280617164906</v>
+        <f t="shared" si="12"/>
+        <v>2118.3702989392477</v>
       </c>
       <c r="I52">
         <v>9197</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" si="3"/>
-        <v>-6.966892649856125</v>
+        <v>334.15450096733809</v>
       </c>
       <c r="K52" s="1">
         <v>1180</v>
@@ -3289,7 +3289,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -3300,11 +3300,11 @@
         <v>6</v>
       </c>
       <c r="D53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8929604628736743E-3</v>
       </c>
       <c r="E53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -3312,19 +3312,19 @@
         <v>169.46962391513983</v>
       </c>
       <c r="G53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>169.46962391513983</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="11"/>
-        <v>2372.5747348119576</v>
+        <f t="shared" si="12"/>
+        <v>508.4088717454195</v>
       </c>
       <c r="I53">
         <v>2266</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" si="3"/>
-        <v>-4.4919442683184574</v>
+        <v>345.70426008118051</v>
       </c>
       <c r="K53" s="1">
         <v>1180</v>
@@ -3339,7 +3339,7 @@
         <v>100</v>
       </c>
       <c r="O53" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -3350,11 +3350,11 @@
         <v>59</v>
       </c>
       <c r="D54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8447444551591129E-2</v>
       </c>
       <c r="E54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F54">
@@ -3362,19 +3362,19 @@
         <v>1666.4513018322084</v>
       </c>
       <c r="G54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1666.4513018322084</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="11"/>
-        <v>23330.318225650917</v>
+        <f t="shared" si="12"/>
+        <v>4999.353905496625</v>
       </c>
       <c r="I54">
         <v>22116</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="3"/>
-        <v>-5.2048935376964307</v>
+        <v>342.37716349075004</v>
       </c>
       <c r="K54" s="1">
         <v>1180</v>
@@ -3389,7 +3389,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -3400,11 +3400,11 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6432015429122472E-4</v>
       </c>
       <c r="E55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F55">
@@ -3412,19 +3412,19 @@
         <v>56.489874638379945</v>
       </c>
       <c r="G55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.489874638379945</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="11"/>
-        <v>790.85824493731923</v>
+        <f t="shared" si="12"/>
+        <v>169.46962391513983</v>
       </c>
       <c r="I55">
         <v>749</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="3"/>
-        <v>-5.2927620348241762</v>
+        <v>341.96711050415382</v>
       </c>
       <c r="K55" s="1">
         <v>1180</v>
@@ -3439,7 +3439,7 @@
         <v>100</v>
       </c>
       <c r="O55" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -3450,11 +3450,11 @@
         <v>20</v>
       </c>
       <c r="D56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.643201542912247E-3</v>
       </c>
       <c r="E56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F56">
@@ -3462,19 +3462,19 @@
         <v>564.89874638379945</v>
       </c>
       <c r="G56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>564.89874638379945</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="11"/>
-        <v>7908.5824493731925</v>
+        <f t="shared" si="12"/>
+        <v>1694.6962391513985</v>
       </c>
       <c r="I56">
         <v>7410</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="3"/>
-        <v>-6.3043213188313976</v>
+        <v>337.24650051212006</v>
       </c>
       <c r="K56" s="1">
         <v>1180</v>
@@ -3489,7 +3489,7 @@
         <v>100</v>
       </c>
       <c r="O56" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -3500,11 +3500,11 @@
         <v>15</v>
       </c>
       <c r="D57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2324011571841852E-3</v>
       </c>
       <c r="E57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F57">
@@ -3512,19 +3512,19 @@
         <v>423.67405978784956</v>
       </c>
       <c r="G57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>423.67405978784956</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="11"/>
-        <v>5931.4368370298935</v>
+        <f t="shared" si="12"/>
+        <v>1271.0221793635487</v>
       </c>
       <c r="I57">
         <v>5440</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" si="3"/>
-        <v>-8.2852915833455185</v>
+        <v>328.00197261105421</v>
       </c>
       <c r="K57" s="1">
         <v>1180</v>
@@ -3539,7 +3539,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -3550,11 +3550,11 @@
         <v>20</v>
       </c>
       <c r="D58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.643201542912247E-3</v>
       </c>
       <c r="E58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F58">
@@ -3562,19 +3562,19 @@
         <v>564.89874638379945</v>
       </c>
       <c r="G58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>564.89874638379945</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="11"/>
-        <v>7908.5824493731925</v>
+        <f t="shared" si="12"/>
+        <v>1694.6962391513985</v>
       </c>
       <c r="I58">
         <v>7431</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" si="3"/>
-        <v>-6.0387870067795033</v>
+        <v>338.48566063502898</v>
       </c>
       <c r="K58" s="1">
         <v>1180</v>
@@ -3589,7 +3589,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -3600,11 +3600,11 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6432015429122472E-4</v>
       </c>
       <c r="E59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F59">
@@ -3612,19 +3612,19 @@
         <v>56.489874638379945</v>
       </c>
       <c r="G59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.489874638379945</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="11"/>
-        <v>790.85824493731923</v>
+        <f t="shared" si="12"/>
+        <v>169.46962391513983</v>
       </c>
       <c r="I59">
         <v>727</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" si="3"/>
-        <v>-8.0745500658440275</v>
+        <v>328.98543302606117</v>
       </c>
       <c r="K59" s="1">
         <v>1180</v>
@@ -3639,7 +3639,7 @@
         <v>100</v>
       </c>
       <c r="O59" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3650,11 +3650,11 @@
         <v>12</v>
       </c>
       <c r="D60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7859209257473485E-3</v>
       </c>
       <c r="E60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F60">
@@ -3662,19 +3662,19 @@
         <v>338.93924783027967</v>
       </c>
       <c r="G60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>338.93924783027967</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="11"/>
-        <v>4745.1494696239151</v>
+        <f t="shared" si="12"/>
+        <v>1016.817743490839</v>
       </c>
       <c r="I60">
         <v>4477</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" si="3"/>
-        <v>-5.6510226145767284</v>
+        <v>340.29522779864192</v>
       </c>
       <c r="K60" s="1">
         <v>1180</v>
@@ -3689,7 +3689,7 @@
         <v>100</v>
       </c>
       <c r="O60" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -3700,11 +3700,11 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6432015429122472E-4</v>
       </c>
       <c r="E61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F61">
@@ -3712,19 +3712,19 @@
         <v>56.489874638379945</v>
       </c>
       <c r="G61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.489874638379945</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="11"/>
-        <v>790.85824493731923</v>
+        <f t="shared" si="12"/>
+        <v>169.46962391513983</v>
       </c>
       <c r="I61">
         <v>765</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" si="3"/>
-        <v>-3.2696434668097401</v>
+        <v>351.40833048822117</v>
       </c>
       <c r="K61" s="1">
         <v>1180</v>
@@ -3739,7 +3739,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3750,11 +3750,11 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561236E-4</v>
       </c>
       <c r="E62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F62">
@@ -3762,19 +3762,19 @@
         <v>28.244937319189972</v>
       </c>
       <c r="G62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.244937319189972</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="11"/>
-        <v>395.42912246865961</v>
+        <f t="shared" si="12"/>
+        <v>84.734811957569917</v>
       </c>
       <c r="I62">
         <v>390</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" si="3"/>
-        <v>-1.3729698092962053</v>
+        <v>360.25947422328437</v>
       </c>
       <c r="K62" s="1">
         <v>1180</v>
@@ -3789,7 +3789,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3800,11 +3800,11 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561236E-4</v>
       </c>
       <c r="E63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F63">
@@ -3812,19 +3812,19 @@
         <v>28.244937319189972</v>
       </c>
       <c r="G63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.244937319189972</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="11"/>
-        <v>395.42912246865961</v>
+        <f t="shared" si="12"/>
+        <v>84.734811957569917</v>
       </c>
       <c r="I63">
         <v>381</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" ref="J63:J126" si="12">((I63-H63)/H63)*100</f>
-        <v>-3.648978198312447</v>
+        <f t="shared" ref="J63:J126" si="13">((I63-H63)/H63)*100</f>
+        <v>349.63810174120857</v>
       </c>
       <c r="K63" s="1">
         <v>1180</v>
@@ -3839,7 +3839,7 @@
         <v>100</v>
       </c>
       <c r="O63" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3850,31 +3850,31 @@
         <v>166</v>
       </c>
       <c r="D64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0038572806171646E-2</v>
       </c>
       <c r="E64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64:F127" si="13">D64*((K64+L64)/2)*((M64+N64))/2</f>
+        <f t="shared" ref="F64:F127" si="14">D64*((K64+L64)/2)*((M64+N64))/2</f>
         <v>4688.6595949855346</v>
       </c>
       <c r="G64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4688.6595949855346</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="11"/>
-        <v>65641.234329797488</v>
+        <f t="shared" si="12"/>
+        <v>14065.978784956604</v>
       </c>
       <c r="I64">
         <v>61445</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="12"/>
-        <v>-6.3926804129163521</v>
+        <f t="shared" si="13"/>
+        <v>336.83415807305704</v>
       </c>
       <c r="K64" s="1">
         <v>1180</v>
@@ -3889,7 +3889,7 @@
         <v>100</v>
       </c>
       <c r="O64" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -3900,31 +3900,31 @@
         <v>6</v>
       </c>
       <c r="D65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8929604628736743E-3</v>
       </c>
       <c r="E65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>169.46962391513983</v>
       </c>
       <c r="G65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>169.46962391513983</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="11"/>
-        <v>2372.5747348119576</v>
+        <f t="shared" si="12"/>
+        <v>508.4088717454195</v>
       </c>
       <c r="I65">
         <v>2264</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="12"/>
-        <v>-4.5762408753190593</v>
+        <f t="shared" si="13"/>
+        <v>345.31087591517775</v>
       </c>
       <c r="K65" s="1">
         <v>1180</v>
@@ -3939,7 +3939,7 @@
         <v>100</v>
       </c>
       <c r="O65" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3950,31 +3950,31 @@
         <v>12</v>
       </c>
       <c r="D66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7859209257473485E-3</v>
       </c>
       <c r="E66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>338.93924783027967</v>
       </c>
       <c r="G66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>338.93924783027967</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="11"/>
-        <v>4745.1494696239151</v>
+        <f t="shared" si="12"/>
+        <v>1016.817743490839</v>
       </c>
       <c r="I66">
         <v>4419</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="12"/>
-        <v>-6.8733234160854515</v>
+        <f t="shared" si="13"/>
+        <v>334.5911573916012</v>
       </c>
       <c r="K66" s="1">
         <v>1180</v>
@@ -3989,7 +3989,7 @@
         <v>100</v>
       </c>
       <c r="O66" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -4000,31 +4000,31 @@
         <v>45</v>
       </c>
       <c r="D67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1697203471552556E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1271.0221793635487</v>
       </c>
       <c r="G67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1271.0221793635487</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="11"/>
-        <v>17794.310511089683</v>
+        <f t="shared" si="12"/>
+        <v>3813.0665380906462</v>
       </c>
       <c r="I67">
         <v>16639</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="12"/>
-        <v>-6.4925837411327416</v>
+        <f t="shared" si="13"/>
+        <v>336.36794254138056</v>
       </c>
       <c r="K67" s="1">
         <v>1180</v>
@@ -4039,7 +4039,7 @@
         <v>100</v>
       </c>
       <c r="O67" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -4050,31 +4050,31 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561235E-3</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>282.44937319189972</v>
       </c>
       <c r="G68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>282.44937319189972</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="11"/>
-        <v>3954.2912246865963</v>
+        <f t="shared" si="12"/>
+        <v>847.34811957569923</v>
       </c>
       <c r="I68">
         <v>3614</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="12"/>
-        <v>-8.6056186899478195</v>
+        <f t="shared" si="13"/>
+        <v>326.50711278024346</v>
       </c>
       <c r="K68" s="1">
         <v>1180</v>
@@ -4089,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="O68" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -4100,31 +4100,31 @@
         <v>15</v>
       </c>
       <c r="D69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2324011571841852E-3</v>
       </c>
       <c r="E69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>423.67405978784956</v>
       </c>
       <c r="G69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>423.67405978784956</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="11"/>
-        <v>5931.4368370298935</v>
+        <f t="shared" si="12"/>
+        <v>1271.0221793635487</v>
       </c>
       <c r="I69">
         <v>5606</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="12"/>
-        <v>-5.4866442309255481</v>
+        <f t="shared" si="13"/>
+        <v>341.06232692234744</v>
       </c>
       <c r="K69" s="1">
         <v>1180</v>
@@ -4139,7 +4139,7 @@
         <v>100</v>
       </c>
       <c r="O69" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -4150,31 +4150,31 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561236E-4</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.244937319189972</v>
       </c>
       <c r="G70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.244937319189972</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="11"/>
-        <v>395.42912246865961</v>
+        <f t="shared" si="12"/>
+        <v>84.734811957569917</v>
       </c>
       <c r="I70">
         <v>375</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="12"/>
-        <v>-5.1663171243232737</v>
+        <f t="shared" si="13"/>
+        <v>342.55718675315802</v>
       </c>
       <c r="K70" s="1">
         <v>1180</v>
@@ -4189,7 +4189,7 @@
         <v>100</v>
       </c>
       <c r="O70" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -4200,31 +4200,31 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561235E-3</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>282.44937319189972</v>
       </c>
       <c r="G71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>282.44937319189972</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="11"/>
-        <v>3954.2912246865963</v>
+        <f t="shared" si="12"/>
+        <v>847.34811957569923</v>
       </c>
       <c r="I71">
         <v>3680</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="12"/>
-        <v>-6.9365458713359089</v>
+        <f t="shared" si="13"/>
+        <v>334.29611926709907</v>
       </c>
       <c r="K71" s="1">
         <v>1180</v>
@@ -4239,7 +4239,7 @@
         <v>100</v>
       </c>
       <c r="O71" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -4250,31 +4250,31 @@
         <v>5</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4108003857280617E-3</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>141.22468659594986</v>
       </c>
       <c r="G72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>141.22468659594986</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="11"/>
-        <v>1977.1456123432981</v>
+        <f t="shared" si="12"/>
+        <v>423.67405978784961</v>
       </c>
       <c r="I72">
         <v>1905</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="12"/>
-        <v>-3.6489781983124496</v>
+        <f t="shared" si="13"/>
+        <v>349.63810174120852</v>
       </c>
       <c r="K72" s="1">
         <v>1180</v>
@@ -4289,7 +4289,7 @@
         <v>100</v>
       </c>
       <c r="O72" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -4300,31 +4300,31 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8216007714561235E-3</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>282.44937319189972</v>
       </c>
       <c r="G73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>282.44937319189972</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="11"/>
-        <v>3954.2912246865963</v>
+        <f t="shared" si="12"/>
+        <v>847.34811957569923</v>
       </c>
       <c r="I73">
         <v>3714</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="12"/>
-        <v>-6.076720479929774</v>
+        <f t="shared" si="13"/>
+        <v>338.30863776032766</v>
       </c>
       <c r="K73" s="1">
         <v>1180</v>
@@ -4339,7 +4339,7 @@
         <v>100</v>
       </c>
       <c r="O73" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -4350,31 +4350,31 @@
         <v>15</v>
       </c>
       <c r="D74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2324011571841852E-3</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>423.67405978784956</v>
       </c>
       <c r="G74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>423.67405978784956</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="11"/>
-        <v>5931.4368370298935</v>
+        <f t="shared" si="12"/>
+        <v>1271.0221793635487</v>
       </c>
       <c r="I74">
         <v>5512</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="12"/>
-        <v>-7.0714204425368576</v>
+        <f t="shared" si="13"/>
+        <v>333.6667046014947</v>
       </c>
       <c r="K74" s="1">
         <v>1180</v>
@@ -4389,7 +4389,7 @@
         <v>100</v>
       </c>
       <c r="O74" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -4400,31 +4400,31 @@
         <v>11</v>
       </c>
       <c r="D75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.303760848601736E-3</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>310.69431051108967</v>
       </c>
       <c r="G75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>310.69431051108967</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="11"/>
-        <v>4349.7203471552557</v>
+        <f t="shared" si="12"/>
+        <v>932.08293153326895</v>
       </c>
       <c r="I75">
         <v>4002</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="12"/>
-        <v>-7.9940851227979977</v>
+        <f t="shared" si="13"/>
+        <v>329.36093609360938</v>
       </c>
       <c r="K75" s="1">
         <v>1180</v>
@@ -4439,32 +4439,32 @@
         <v>100</v>
       </c>
       <c r="O75" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K76" s="1">
@@ -4485,27 +4485,27 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K77" s="1">
@@ -4526,27 +4526,27 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K78" s="1">
@@ -4567,27 +4567,27 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K79" s="1">
@@ -4608,27 +4608,27 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K80" s="1">
@@ -4649,27 +4649,27 @@
     </row>
     <row r="81" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K81" s="1">
@@ -4690,27 +4690,27 @@
     </row>
     <row r="82" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K82" s="1">
@@ -4731,27 +4731,27 @@
     </row>
     <row r="83" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K83" s="1">
@@ -4772,27 +4772,27 @@
     </row>
     <row r="84" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K84" s="1">
@@ -4813,27 +4813,27 @@
     </row>
     <row r="85" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K85" s="1">
@@ -4854,27 +4854,27 @@
     </row>
     <row r="86" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F86">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K86" s="1">
@@ -4895,27 +4895,27 @@
     </row>
     <row r="87" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K87" s="1">
@@ -4936,27 +4936,27 @@
     </row>
     <row r="88" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F88">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K88" s="1">
@@ -4977,27 +4977,27 @@
     </row>
     <row r="89" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F89">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K89" s="1">
@@ -5018,27 +5018,27 @@
     </row>
     <row r="90" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F90">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K90" s="1">
@@ -5059,27 +5059,27 @@
     </row>
     <row r="91" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K91" s="1">
@@ -5100,27 +5100,27 @@
     </row>
     <row r="92" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F92">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K92" s="1">
@@ -5141,27 +5141,27 @@
     </row>
     <row r="93" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K93" s="1">
@@ -5182,27 +5182,27 @@
     </row>
     <row r="94" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F94">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K94" s="1">
@@ -5223,27 +5223,27 @@
     </row>
     <row r="95" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F95">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K95" s="1">
@@ -5264,27 +5264,27 @@
     </row>
     <row r="96" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F96">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K96" s="1">
@@ -5305,27 +5305,27 @@
     </row>
     <row r="97" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F97">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="1">
@@ -5346,27 +5346,27 @@
     </row>
     <row r="98" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F98">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K98" s="1">
@@ -5387,27 +5387,27 @@
     </row>
     <row r="99" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F99">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K99" s="1">
@@ -5428,27 +5428,27 @@
     </row>
     <row r="100" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D100">
-        <f t="shared" ref="D100:D158" si="14">B100/2074</f>
+        <f t="shared" ref="D100:D158" si="15">B100/2074</f>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100:E158" si="15">C100*((K100+L100)/2)</f>
+        <f t="shared" ref="E100:E158" si="16">C100*((K100+L100)/2)</f>
         <v>0</v>
       </c>
       <c r="F100">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ref="G100:G158" si="17">F100+E100</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" ref="H100:H158" si="18">G100*O100</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <f t="shared" ref="G100:G158" si="16">F100+E100</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <f t="shared" ref="H100:H158" si="17">G100*O100</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K100" s="1">
@@ -5469,27 +5469,27 @@
     </row>
     <row r="101" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D101">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F101">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E101">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F101">
+      <c r="G101">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K101" s="1">
@@ -5510,27 +5510,27 @@
     </row>
     <row r="102" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D102">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F102">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E102">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F102">
+      <c r="G102">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K102" s="1">
@@ -5551,27 +5551,27 @@
     </row>
     <row r="103" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D103">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E103">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F103">
+      <c r="G103">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K103" s="1">
@@ -5592,27 +5592,27 @@
     </row>
     <row r="104" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D104">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F104">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E104">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F104">
+      <c r="G104">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H104" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K104" s="1">
@@ -5633,27 +5633,27 @@
     </row>
     <row r="105" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D105">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F105">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E105">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F105">
+      <c r="G105">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H105" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K105" s="1">
@@ -5674,27 +5674,27 @@
     </row>
     <row r="106" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D106">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F106">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E106">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F106">
+      <c r="G106">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K106" s="1">
@@ -5715,27 +5715,27 @@
     </row>
     <row r="107" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D107">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F107">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F107">
+      <c r="G107">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K107" s="1">
@@ -5756,27 +5756,27 @@
     </row>
     <row r="108" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D108">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F108">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E108">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F108">
+      <c r="G108">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K108" s="1">
@@ -5797,27 +5797,27 @@
     </row>
     <row r="109" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D109">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F109">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E109">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F109">
+      <c r="G109">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K109" s="1">
@@ -5838,27 +5838,27 @@
     </row>
     <row r="110" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D110">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E110">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F110">
+      <c r="G110">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K110" s="1">
@@ -5879,27 +5879,27 @@
     </row>
     <row r="111" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D111">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E111">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F111">
+      <c r="G111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K111" s="1">
@@ -5920,27 +5920,27 @@
     </row>
     <row r="112" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D112">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E112">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F112">
+      <c r="G112">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H112" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K112" s="1">
@@ -5961,27 +5961,27 @@
     </row>
     <row r="113" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D113">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E113">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F113">
+      <c r="G113">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K113" s="1">
@@ -6002,27 +6002,27 @@
     </row>
     <row r="114" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D114">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F114">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E114">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F114">
+      <c r="G114">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K114" s="1">
@@ -6043,27 +6043,27 @@
     </row>
     <row r="115" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D115">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F115">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E115">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="G115">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H115" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K115" s="1">
@@ -6084,27 +6084,27 @@
     </row>
     <row r="116" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D116">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F116">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E116">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F116">
+      <c r="G116">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K116" s="1">
@@ -6125,27 +6125,27 @@
     </row>
     <row r="117" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D117">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F117">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E117">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F117">
+      <c r="G117">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K117" s="1">
@@ -6166,27 +6166,27 @@
     </row>
     <row r="118" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D118">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F118">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E118">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F118">
+      <c r="G118">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H118" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K118" s="1">
@@ -6207,27 +6207,27 @@
     </row>
     <row r="119" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D119">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F119">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E119">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F119">
+      <c r="G119">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K119" s="1">
@@ -6248,27 +6248,27 @@
     </row>
     <row r="120" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D120">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F120">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E120">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F120">
+      <c r="G120">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K120" s="1">
@@ -6289,27 +6289,27 @@
     </row>
     <row r="121" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D121">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F121">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E121">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F121">
+      <c r="G121">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H121" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K121" s="1">
@@ -6330,27 +6330,27 @@
     </row>
     <row r="122" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D122">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F122">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E122">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F122">
+      <c r="G122">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K122" s="1">
@@ -6371,27 +6371,27 @@
     </row>
     <row r="123" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F123">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E123">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F123">
+      <c r="G123">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H123" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K123" s="1">
@@ -6412,27 +6412,27 @@
     </row>
     <row r="124" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D124">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E124">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F124">
+      <c r="G124">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H124" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K124" s="1">
@@ -6453,27 +6453,27 @@
     </row>
     <row r="125" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D125">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F125">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E125">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F125">
+      <c r="G125">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H125" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K125" s="1">
@@ -6494,27 +6494,27 @@
     </row>
     <row r="126" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D126">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F126">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E126">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F126">
+      <c r="G126">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H126" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K126" s="1">
@@ -6535,27 +6535,27 @@
     </row>
     <row r="127" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D127">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F127">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E127">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="G127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H127" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J127" s="2" t="e">
-        <f t="shared" ref="J127:J158" si="18">((I127-H127)/H127)*100</f>
+        <f t="shared" ref="J127:J158" si="19">((I127-H127)/H127)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K127" s="1">
@@ -6576,27 +6576,27 @@
     </row>
     <row r="128" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F128">
-        <f t="shared" ref="F128:F158" si="19">D128*((K128+L128)/2)*((M128+N128))/2</f>
+        <f t="shared" ref="F128:F158" si="20">D128*((K128+L128)/2)*((M128+N128))/2</f>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H128" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J128" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K128" s="1">
@@ -6617,27 +6617,27 @@
     </row>
     <row r="129" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F129">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H129" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K129" s="1">
@@ -6658,27 +6658,27 @@
     </row>
     <row r="130" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F130">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H130" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K130" s="1">
@@ -6699,27 +6699,27 @@
     </row>
     <row r="131" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F131">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H131" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K131" s="1">
@@ -6740,27 +6740,27 @@
     </row>
     <row r="132" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F132">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H132" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K132" s="1">
@@ -6781,27 +6781,27 @@
     </row>
     <row r="133" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F133">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H133" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K133" s="1">
@@ -6822,27 +6822,27 @@
     </row>
     <row r="134" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F134">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H134" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H134" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K134" s="1">
@@ -6863,27 +6863,27 @@
     </row>
     <row r="135" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F135">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H135" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K135" s="1">
@@ -6904,27 +6904,27 @@
     </row>
     <row r="136" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F136">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H136" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K136" s="1">
@@ -6945,27 +6945,27 @@
     </row>
     <row r="137" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F137">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H137" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H137" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K137" s="1">
@@ -6986,27 +6986,27 @@
     </row>
     <row r="138" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F138">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H138" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H138" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K138" s="1">
@@ -7027,27 +7027,27 @@
     </row>
     <row r="139" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F139">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H139" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H139" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K139" s="1">
@@ -7068,27 +7068,27 @@
     </row>
     <row r="140" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F140">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H140" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K140" s="1">
@@ -7109,27 +7109,27 @@
     </row>
     <row r="141" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F141">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H141" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H141" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K141" s="1">
@@ -7150,27 +7150,27 @@
     </row>
     <row r="142" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F142">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H142" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K142" s="1">
@@ -7191,27 +7191,27 @@
     </row>
     <row r="143" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F143">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H143" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H143" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K143" s="1">
@@ -7232,27 +7232,27 @@
     </row>
     <row r="144" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F144">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H144" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K144" s="1">
@@ -7273,27 +7273,27 @@
     </row>
     <row r="145" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F145">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H145" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H145" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K145" s="1">
@@ -7314,27 +7314,27 @@
     </row>
     <row r="146" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F146">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H146" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H146" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K146" s="1">
@@ -7355,27 +7355,27 @@
     </row>
     <row r="147" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F147">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H147" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H147" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K147" s="1">
@@ -7396,27 +7396,27 @@
     </row>
     <row r="148" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F148">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H148" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H148" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K148" s="1">
@@ -7437,27 +7437,27 @@
     </row>
     <row r="149" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F149">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H149" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H149" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K149" s="1">
@@ -7478,27 +7478,27 @@
     </row>
     <row r="150" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F150">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H150" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H150" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K150" s="1">
@@ -7519,27 +7519,27 @@
     </row>
     <row r="151" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F151">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H151" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H151" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K151" s="1">
@@ -7560,27 +7560,27 @@
     </row>
     <row r="152" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F152">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H152" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H152" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K152" s="1">
@@ -7601,27 +7601,27 @@
     </row>
     <row r="153" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F153">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H153" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H153" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K153" s="1">
@@ -7642,27 +7642,27 @@
     </row>
     <row r="154" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F154">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H154" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H154" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K154" s="1">
@@ -7683,27 +7683,27 @@
     </row>
     <row r="155" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F155">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H155" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H155" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K155" s="1">
@@ -7724,27 +7724,27 @@
     </row>
     <row r="156" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F156">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H156" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H156" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J156" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K156" s="1">
@@ -7765,27 +7765,27 @@
     </row>
     <row r="157" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F157">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H157" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H157" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K157" s="1">
@@ -7806,27 +7806,27 @@
     </row>
     <row r="158" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F158">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H158" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H158" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K158" s="1">
